--- a/output/below_50/tRNA-Arg-CCT-2-1.xlsx
+++ b/output/below_50/tRNA-Arg-CCT-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="131">
   <si>
     <t>chr17</t>
   </si>
@@ -405,192 +405,6 @@
   </si>
   <si>
     <t>73</t>
-  </si>
-  <si>
-    <t>73030682</t>
-  </si>
-  <si>
-    <t>73030705</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>73030685</t>
-  </si>
-  <si>
-    <t>TCCCCATGGCTTCTCAGGCT</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 16%, Moreno-Mateos: 52%</t>
-  </si>
-  <si>
-    <t>39896182076</t>
-  </si>
-  <si>
-    <t>73030711</t>
-  </si>
-  <si>
-    <t>73030734</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>73030731</t>
-  </si>
-  <si>
-    <t>GATGAACCGCTGGCTGGGCG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 24, Doench 2016: 43%, Moreno-Mateos: 88%</t>
-  </si>
-  <si>
-    <t>1.9448E+11</t>
-  </si>
-  <si>
-    <t>73030717</t>
-  </si>
-  <si>
-    <t>73030740</t>
-  </si>
-  <si>
-    <t>73030720</t>
-  </si>
-  <si>
-    <t>GGGACGCCGCGCCCAGCCAG</t>
-  </si>
-  <si>
-    <t>99% (88)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 23, Doench 2016: 56%, Moreno-Mateos: 99%</t>
-  </si>
-  <si>
-    <t>25680891251</t>
-  </si>
-  <si>
-    <t>73030989</t>
-  </si>
-  <si>
-    <t>73031012</t>
-  </si>
-  <si>
-    <t>73031009</t>
-  </si>
-  <si>
-    <t>GCCTCATCCCTTAGGCCACG</t>
-  </si>
-  <si>
-    <t>96% (68)</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 96%, Moreno-Mateos: 57%</t>
-  </si>
-  <si>
-    <t>1.18579E+11</t>
-  </si>
-  <si>
-    <t>73031062</t>
-  </si>
-  <si>
-    <t>73031085</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>73031082</t>
-  </si>
-  <si>
-    <t>GGGGTGACTAGGCGGGCGGC</t>
-  </si>
-  <si>
-    <t>12% (33)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 48, Doench 2016: 12%, Moreno-Mateos: 46%</t>
-  </si>
-  <si>
-    <t>36965739661</t>
-  </si>
-  <si>
-    <t>73031071</t>
-  </si>
-  <si>
-    <t>73031094</t>
-  </si>
-  <si>
-    <t>73031091</t>
-  </si>
-  <si>
-    <t>AGGCGGGCGGCTGGGGCCAG</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>100% (101)</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 28, Doench 2016: 30%, Moreno-Mateos: 100%</t>
-  </si>
-  <si>
-    <t>8057533338</t>
-  </si>
-  <si>
-    <t>73031075</t>
-  </si>
-  <si>
-    <t>73031098</t>
-  </si>
-  <si>
-    <t>73031095</t>
-  </si>
-  <si>
-    <t>GGGCGGCTGGGGCCAGAGGA</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>96% (79)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 14%, Moreno-Mateos: 96%</t>
   </si>
 </sst>
 </file>
@@ -635,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1585,773 +1399,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N17" t="s">
-        <v>136</v>
-      </c>
-      <c r="O17" t="s">
-        <v>137</v>
-      </c>
-      <c r="P17" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" t="s">
-        <v>138</v>
-      </c>
-      <c r="S17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" t="s">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" t="s">
-        <v>146</v>
-      </c>
-      <c r="P18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>148</v>
-      </c>
-      <c r="R18" t="s">
-        <v>149</v>
-      </c>
-      <c r="S18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>67</v>
-      </c>
-      <c r="R19" t="s">
-        <v>156</v>
-      </c>
-      <c r="S19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>130</v>
-      </c>
-      <c r="R20" t="s">
-        <v>164</v>
-      </c>
-      <c r="S20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" t="s">
-        <v>168</v>
-      </c>
-      <c r="N21" t="s">
-        <v>171</v>
-      </c>
-      <c r="O21" t="s">
-        <v>172</v>
-      </c>
-      <c r="P21" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>173</v>
-      </c>
-      <c r="R21" t="s">
-        <v>174</v>
-      </c>
-      <c r="S21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>180</v>
-      </c>
-      <c r="O22" t="s">
-        <v>181</v>
-      </c>
-      <c r="P22" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>182</v>
-      </c>
-      <c r="R22" t="s">
-        <v>183</v>
-      </c>
-      <c r="S22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>188</v>
-      </c>
-      <c r="L23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" t="s">
-        <v>189</v>
-      </c>
-      <c r="O23" t="s">
-        <v>190</v>
-      </c>
-      <c r="P23" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>173</v>
-      </c>
-      <c r="R23" t="s">
-        <v>192</v>
-      </c>
-      <c r="S23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L24" t="s">
-        <v>145</v>
-      </c>
-      <c r="M24" t="s">
-        <v>142</v>
-      </c>
-      <c r="N24" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" t="s">
-        <v>146</v>
-      </c>
-      <c r="P24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>148</v>
-      </c>
-      <c r="R24" t="s">
-        <v>149</v>
-      </c>
-      <c r="S24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" t="s">
-        <v>154</v>
-      </c>
-      <c r="L25" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" t="s">
-        <v>155</v>
-      </c>
-      <c r="P25" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>67</v>
-      </c>
-      <c r="R25" t="s">
-        <v>156</v>
-      </c>
-      <c r="S25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" t="s">
-        <v>161</v>
-      </c>
-      <c r="L26" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" t="s">
-        <v>162</v>
-      </c>
-      <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>130</v>
-      </c>
-      <c r="R26" t="s">
-        <v>164</v>
-      </c>
-      <c r="S26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" t="s">
-        <v>170</v>
-      </c>
-      <c r="L27" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" t="s">
-        <v>168</v>
-      </c>
-      <c r="N27" t="s">
-        <v>171</v>
-      </c>
-      <c r="O27" t="s">
-        <v>172</v>
-      </c>
-      <c r="P27" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>173</v>
-      </c>
-      <c r="R27" t="s">
-        <v>174</v>
-      </c>
-      <c r="S27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" t="s">
-        <v>179</v>
-      </c>
-      <c r="L28" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>180</v>
-      </c>
-      <c r="O28" t="s">
-        <v>181</v>
-      </c>
-      <c r="P28" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>182</v>
-      </c>
-      <c r="R28" t="s">
-        <v>183</v>
-      </c>
-      <c r="S28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>189</v>
-      </c>
-      <c r="O29" t="s">
-        <v>190</v>
-      </c>
-      <c r="P29" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>173</v>
-      </c>
-      <c r="R29" t="s">
-        <v>192</v>
-      </c>
-      <c r="S29" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
